--- a/recipes_model.xlsx
+++ b/recipes_model.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lida/lab4_tables/lab4_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5661DC2A-237B-BA45-8915-5B1956AC4BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55639984-57FA-314B-B8F4-212E2BBB76F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{470343B5-99BB-934A-B351-D93A09802A15}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{02C03472-97DE-7A41-863A-3C0DB6269562}"/>
   </bookViews>
   <sheets>
-    <sheet name="Модель" sheetId="2" r:id="rId1"/>
+    <sheet name="Статистика" sheetId="6" r:id="rId1"/>
+    <sheet name="Модель" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>recipe</t>
   </si>
@@ -174,6 +175,57 @@
   </si>
   <si>
     <t>Дата регистрации пользователя</t>
+  </si>
+  <si>
+    <t>name VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>id SERIAL</t>
+  </si>
+  <si>
+    <t>minutes INT</t>
+  </si>
+  <si>
+    <t>contributor_id INT</t>
+  </si>
+  <si>
+    <t>submitted TIMESTAMP</t>
+  </si>
+  <si>
+    <t>n_steps INT</t>
+  </si>
+  <si>
+    <t>description TEXT</t>
+  </si>
+  <si>
+    <t>n_ingredients INT</t>
+  </si>
+  <si>
+    <t>user_id INT</t>
+  </si>
+  <si>
+    <t>recipe_id INT</t>
+  </si>
+  <si>
+    <t>date TIMESTAMP</t>
+  </si>
+  <si>
+    <t>rating INT</t>
+  </si>
+  <si>
+    <t>review TEST</t>
+  </si>
+  <si>
+    <t>login VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>registered TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Сущность</t>
+  </si>
+  <si>
+    <t>Количество атрибутов</t>
   </si>
 </sst>
 </file>
@@ -242,6 +294,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Статистика!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество атрибутов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Статистика!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>review</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>user</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Статистика!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F157-6947-AE11-622917AD4226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1508034064"/>
+        <c:axId val="2041433792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1508034064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2041433792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2041433792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1508034064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7912E3-2EC1-2CAB-CE1F-72ED23291659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,45 +783,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295228F8-369D-CA40-B576-C595345279BF}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5104B051-3CE3-904E-A438-3A1067A54327}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEE3147-511F-604B-ABDA-1DC4C23F455D}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -589,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -612,19 +892,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -632,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -644,16 +930,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -673,7 +953,19 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -681,19 +973,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -701,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -713,7 +1008,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -721,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -733,30 +1031,33 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -764,10 +1065,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -776,10 +1077,13 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -787,7 +1091,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -799,16 +1103,13 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -816,10 +1117,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -828,7 +1129,19 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -836,10 +1149,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -848,7 +1161,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -856,42 +1172,45 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -899,10 +1218,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -911,18 +1230,24 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -931,7 +1256,33 @@
         <v>40</v>
       </c>
       <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
